--- a/AppTec/practice/TeamB/テスト関連/障害管理表(Bチーム).xlsx
+++ b/AppTec/practice/TeamB/テスト関連/障害管理表(Bチーム).xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="10152"/>
+    <workbookView xWindow="0" yWindow="4104" windowWidth="23040" windowHeight="10152"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理表" sheetId="1" r:id="rId1"/>
     <sheet name="重要度" sheetId="2" r:id="rId2"/>
     <sheet name="緊急度" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題管理表!$A$3:$M$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">課題管理表!$1:$3</definedName>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -294,6 +297,400 @@
     <t>松田</t>
     <rPh sb="0" eb="2">
       <t>マツダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-4-1</t>
+  </si>
+  <si>
+    <t>投稿がヒットしない場合のメッセージが表示されていない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前田</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-5-1-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索後に投稿日が表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>トウコウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「削除」ボタン押した際にダイアログによる確認が表示されない</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-7-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2-9-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１４０行目のカテゴリーと期間指定の検索結果が０件の場合のメッセージ表記について修正</t>
+    <rPh sb="3" eb="5">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊地</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイアログ表示をするためのスクリプトタグが記載されていなかったので、追記</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usermanagement.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー編集画面で他ユーザーのアカウントとの重複を許してしまう</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ユル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserManagementUpdate_Servlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー編集画面で命令規則に違反した場合、エラーメッセージのみになる</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>editaccount.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー管理画面でダイアログでキャンセルを押したときにボタンがもとに戻らない</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント投稿時エラーがある場合に
+エラーメッセージが表示されない</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-2-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-1-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿の一覧表示がコメント投稿されている数分
+同じ投稿が表示されてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前田</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>homeに送信する情報にwrite_created_dateがなかったので、各javaに追記</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HomeDate_Servlet.java
+HomeCategory_Servlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイアログのキャンセル後にリロードするコードを追記</t>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重複チェックするコードがなかったため、重複をチェックするコードを追記</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー管理画面に戻り再度入力する工程とする。</t>
+    <rPh sb="4" eb="8">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>home.jsp
+NewComment_Servlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を追加して修正</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊地</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Home_Servlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメントと投稿を分けて取得するようにSQL文を修正</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -448,7 +845,79 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -489,6 +958,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="課題管理表"/>
+      <sheetName val="重要度"/>
+      <sheetName val="緊急度"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,9 +1276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -899,167 +1385,383 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A33" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="8">
+        <v>44005</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="8">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8">
+        <v>44005</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="8">
+        <v>44006</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="8">
+        <v>44006</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
@@ -1424,19 +2126,64 @@
   </sheetData>
   <autoFilter ref="A3:M33"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A4:F33 H4:K33 M4:M33">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="H4:K7 M4:M7 A13:F33 A8:C8 A9:E9 M9:M33 H9:K9 H13:K33 I10:K12 A10:A12 A4:F7">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>$K4="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G33">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G4:G7 G13:G33">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>$K4="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L33">
+  <conditionalFormatting sqref="L4:L7 L9:L33">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>$K4="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:F8">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>$K8="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>$K8="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>$K9="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>$K9="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:K8 M8">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>$K8="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>$K8="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H12 D10:F12">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>$K10="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G12">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K10="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C12">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$K4="○"</formula>
+      <formula>$K10="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1452,18 +2199,30 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>重要度!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B33</xm:sqref>
+          <xm:sqref>B4:B9 B13:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>緊急度!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C33</xm:sqref>
+          <xm:sqref>C13:C33 C4:C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\systemi\Downloads\[井上障害管理表(Bチーム) (1).xlsx]緊急度'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\systemi\Downloads\[井上障害管理表(Bチーム) (1).xlsx]重要度'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
